--- a/application/views/rpt/ru/LedgerPayments.xlsx
+++ b/application/views/rpt/ru/LedgerPayments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Акт звіряння" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -293,6 +293,30 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -301,30 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,84 +651,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -738,28 +738,28 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
@@ -797,11 +797,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="12" t="s">
         <v>11</v>
       </c>
@@ -829,11 +829,11 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
@@ -844,11 +844,11 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="12" t="s">
         <v>13</v>
       </c>
@@ -866,29 +866,29 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="str">
+      <c r="A18" s="22" t="str">
         <f>"Сальдо в пользу "&amp;IF(D16&gt;0,A22,D22)</f>
         <v>Сальдо в пользу {$v-&gt;a-&gt;company_name}</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
@@ -900,41 +900,41 @@
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
@@ -946,17 +946,17 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
@@ -968,37 +968,20 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="A27:C27"/>
@@ -1010,6 +993,23 @@
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:G23"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/application/views/rpt/ru/LedgerPayments.xlsx
+++ b/application/views/rpt/ru/LedgerPayments.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iSell\www\isell\application\views\rpt\ru\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Акт звіряння" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Документ</t>
   </si>
@@ -49,26 +54,13 @@
     <t>{$v-&gt;ledger-&gt;rows[]-&gt;i}</t>
   </si>
   <si>
-    <t>{$v-&gt;ledger-&gt;sub_totals-&gt;fbal}</t>
-  </si>
-  <si>
     <t>{$v-&gt;ledger-&gt;sub_totals-&gt;pdebit}</t>
   </si>
   <si>
-    <t>{$v-&gt;ledger-&gt;sub_totals-&gt;ibal}</t>
-  </si>
-  <si>
     <t>{$v-&gt;ledger-&gt;sub_totals-&gt;pcredit}</t>
   </si>
   <si>
     <t>Организация {$v-&gt;a-&gt;company_name}</t>
-  </si>
-  <si>
-    <t>АКТ СВЕРКИ 
-от  {$v-&gt;localDate}</t>
-  </si>
-  <si>
-    <t>с {$v-&gt;ilocalDate} по {$v-&gt;localDate}</t>
   </si>
   <si>
     <t xml:space="preserve">Мы, нижеподписавшиеся, представитель предприятия </t>
@@ -78,16 +70,10 @@
 и представитель предприятия</t>
   </si>
   <si>
-    <t>в лице гл.бухгалтера    с другой стороны, подписали настоящий Акт сверки взаимных расчетов по состоянию на  {$v-&gt;localDate} г. о нижеследующем:</t>
-  </si>
-  <si>
     <t>№ пп</t>
   </si>
   <si>
     <t>Сальдо на {$v-&gt;ilocalDate} г.</t>
-  </si>
-  <si>
-    <t>Итого</t>
   </si>
   <si>
     <t>ПОДПИСИ СТОРОН :</t>
@@ -155,11 +141,38 @@
   <si>
     <t xml:space="preserve"> {$v-&gt;spell} </t>
   </si>
+  <si>
+    <t>{$v-&gt;ledger-&gt;sub_totals-&gt;fbal_debit}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;ledger-&gt;sub_totals-&gt;fbal_credit}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;ledger-&gt;sub_totals-&gt;ibal_debit}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;ledger-&gt;sub_totals-&gt;ibal_credit}</t>
+  </si>
+  <si>
+    <t>Оборот</t>
+  </si>
+  <si>
+    <t>{$v-&gt;beneficiary}</t>
+  </si>
+  <si>
+    <t>с {$v-&gt;ilocalDate} по {$v-&gt;flocalDate}</t>
+  </si>
+  <si>
+    <t>в лице гл.бухгалтера    с другой стороны, подписали настоящий Акт сверки взаимных расчетов по состоянию на  {$v-&gt;flocalDate} г. о нижеследующем:</t>
+  </si>
+  <si>
+    <t>АКТ СВЕРКИ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,20 +198,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -207,9 +206,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -217,21 +214,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -254,81 +277,231 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -349,9 +522,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,9 +562,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,7 +599,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +634,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,381 +808,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:G19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="C9" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4</v>
+      </c>
+      <c r="F11" s="13">
+        <v>5</v>
+      </c>
+      <c r="G11" s="13">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="str">
-        <f>"Сальдо в пользу "&amp;IF(D16&gt;0,A22,D22)</f>
-        <v>Сальдо в пользу {$v-&gt;a-&gt;company_name}</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/application/views/rpt/ru/LedgerPayments.xlsx
+++ b/application/views/rpt/ru/LedgerPayments.xlsx
@@ -439,6 +439,12 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -454,6 +460,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -469,35 +487,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,381 +808,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35" t="s">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="F10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="G10" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
         <v>1</v>
       </c>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
       <c r="C11" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="13">
-        <v>5</v>
-      </c>
-      <c r="G11" s="13">
         <v>6</v>
       </c>
-      <c r="H11" s="14">
+      <c r="G11" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="26" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="26" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="29" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="26" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="27" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/views/rpt/ru/LedgerPayments.xlsx
+++ b/application/views/rpt/ru/LedgerPayments.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Акт звіряння" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Документ</t>
   </si>
@@ -61,13 +61,6 @@
   </si>
   <si>
     <t>Организация {$v-&gt;a-&gt;company_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мы, нижеподписавшиеся, представитель предприятия </t>
-  </si>
-  <si>
-    <t>в лице гл.бухгалтера {$v-&gt;accountant_name} с одной стороны
-и представитель предприятия</t>
   </si>
   <si>
     <t>№ пп</t>
@@ -163,10 +156,10 @@
     <t>с {$v-&gt;ilocalDate} по {$v-&gt;flocalDate}</t>
   </si>
   <si>
-    <t>в лице гл.бухгалтера    с другой стороны, подписали настоящий Акт сверки взаимных расчетов по состоянию на  {$v-&gt;flocalDate} г. о нижеследующем:</t>
-  </si>
-  <si>
     <t>АКТ СВЕРКИ</t>
+  </si>
+  <si>
+    <t>Мы, нижеподписавшиеся, представитель предприятия {$v-&gt;a-&gt;company_name} в лице гл.бухгалтера {$v-&gt;accountant_name} с одной стороны и представитель предприятия {$v-&gt;p-&gt;company_name} в лице гл.бухгалтера    с другой стороны, подписали настоящий Акт сверки взаимных расчетов по состоянию на  {$v-&gt;flocalDate} г. о нижеследующем:</t>
   </si>
 </sst>
 </file>
@@ -401,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -445,11 +438,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,46 +487,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -819,245 +809,255 @@
     <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="B5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13">
+        <v>6</v>
+      </c>
+      <c r="G7" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3</v>
-      </c>
-      <c r="D11" s="13">
-        <v>4</v>
-      </c>
-      <c r="E11" s="13">
-        <v>5</v>
-      </c>
-      <c r="F11" s="13">
-        <v>6</v>
-      </c>
-      <c r="G11" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
@@ -1068,117 +1068,67 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
+  <mergeCells count="24">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
